--- a/pyRevitnvn.tab/Training.panel/RenameTypeName.pushbutton/infor.xlsx
+++ b/pyRevitnvn.tab/Training.panel/RenameTypeName.pushbutton/infor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit\Extensions\pyRevitnvn.extension\pyRevitnvn.tab\Training.panel\RenameTypeName.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5618F33-07AF-4142-9A6E-8B212A998D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D4A3F0-A45C-48E1-9B41-EC811A67B98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,10 @@
     <t>pattern</t>
   </si>
   <si>
-    <t>LengthmmxWidthxTxGmmm</t>
+    <t>LengthxWidthxT</t>
   </si>
   <si>
-    <t>x|mmm|mmx</t>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
